--- a/Assignement/HLR.xlsx
+++ b/Assignement/HLR.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fenil\tops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE95FA51-3801-4E2A-858B-F879CA393A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA160A-05D5-4BA6-AEE8-CF7B8F15454D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" activeTab="3" xr2:uid="{0720D6EE-4794-4DCE-90FF-DC9084C2A66D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" activeTab="4" xr2:uid="{0720D6EE-4794-4DCE-90FF-DC9084C2A66D}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR-ADMIN" sheetId="1" r:id="rId1"/>
     <sheet name="HLR-PIM" sheetId="2" r:id="rId2"/>
     <sheet name="HLR-RECRUITMENT" sheetId="3" r:id="rId3"/>
     <sheet name="HLR-DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario-ADMIN" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>Function id</t>
   </si>
@@ -331,13 +332,115 @@
   </si>
   <si>
     <t>system shall allow the admin to view chart of Location</t>
+  </si>
+  <si>
+    <t>Negative scenario</t>
+  </si>
+  <si>
+    <t>Positive scenario</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Verify admin can reset searched data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify admin can add the user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify admin can delete the user </t>
+  </si>
+  <si>
+    <t>Verify admin can edit the user data</t>
+  </si>
+  <si>
+    <t>Verify username textbox as per specification</t>
+  </si>
+  <si>
+    <t>Verify userrole textbox as per specification</t>
+  </si>
+  <si>
+    <t>Verify Employee name textbox as per specification</t>
+  </si>
+  <si>
+    <t>Verify status textbox as per specification</t>
+  </si>
+  <si>
+    <t>Verify reset button as per specification</t>
+  </si>
+  <si>
+    <t>Verify search button as per specification</t>
+  </si>
+  <si>
+    <t>Verify add button as per specification</t>
+  </si>
+  <si>
+    <t>Verify admin can search with valid data</t>
+  </si>
+  <si>
+    <t>Verify admin can search with Invalid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify admin can not add duplicate data </t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search job role</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search pay grades</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search job categories</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search Work Shifts</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search location</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search structure</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search skill</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search education</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search Licenses</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search Languages</t>
+  </si>
+  <si>
+    <t>verify admin can add ,delete,edit,search Memberships</t>
+  </si>
+  <si>
+    <t>verify if add button not available admin should not add the data</t>
+  </si>
+  <si>
+    <t>verify if edit button not available admin should not edit the data</t>
+  </si>
+  <si>
+    <t>verify if delete button not available admin should not delete the data</t>
+  </si>
+  <si>
+    <t>verify if serach buttton not available  admin should not serach data</t>
+  </si>
+  <si>
+    <t>verify if website is not responsive it may affect on bussiness</t>
+  </si>
+  <si>
+    <t>verify if deleted data showed in existing data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +460,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -406,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,6 +540,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE957A9-226B-4AF2-8BAB-DCBE87C452A2}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1405,4 +1525,258 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EAE83F-6376-4B86-9507-3147A634C968}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="45">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="45">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>